--- a/public/excelTemplate/templete.xlsx
+++ b/public/excelTemplate/templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdul/WebstormProjects/PharmaKhata/public/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459E3ABB-D475-3241-A7AF-F6FE4667704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29237A30-BD94-F349-A750-50C2246ED644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/d/yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,14 +364,17 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial Black"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -390,16 +393,12 @@
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -705,6 +704,60 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="29"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -714,62 +767,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="11"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="29"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,99 +1171,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="106" workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.59765625" customWidth="1"/>
     <col min="2" max="2" width="29.796875" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="43">
         <v>45932</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -1827,13 +1827,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="25">
         <v>1672</v>
       </c>
@@ -1842,105 +1842,105 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="44"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="43"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="31"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="46"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="4"/>
       <c r="G45" s="27">
         <v>2979</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="47" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="4"/>
       <c r="G46" s="26">
         <v>4347</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="mailto:Email.saqibch51700@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
